--- a/data/categorial_size_experiment/results/B_10000_cs results non archi.xlsx
+++ b/data/categorial_size_experiment/results/B_10000_cs results non archi.xlsx
@@ -374,7 +374,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.439</v>
+        <v>0.0286</v>
       </c>
     </row>
     <row r="3">
@@ -382,7 +382,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.551</v>
+        <v>0.5507</v>
       </c>
     </row>
     <row r="4">
@@ -390,7 +390,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00800000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -398,167 +398,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.194</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.4076</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.5598</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.0104</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.2064</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.423</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.5599</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.00760000000000005</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.2092</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.419</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.549</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.196</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.4126</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.5606</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.00780000000000003</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.2184</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.4052</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.5561</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.00819999999999999</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.2042</v>
+        <v>0.585</v>
       </c>
     </row>
   </sheetData>
